--- a/Code/Results/Cases/Case_0_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006789701500184</v>
+        <v>1.036190752139612</v>
       </c>
       <c r="D2">
-        <v>1.020327988483104</v>
+        <v>1.044154630400617</v>
       </c>
       <c r="E2">
-        <v>1.020501102054888</v>
+        <v>1.044600438516409</v>
       </c>
       <c r="F2">
-        <v>1.02710013903075</v>
+        <v>1.05419676900061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050121220413721</v>
+        <v>1.034310528346633</v>
       </c>
       <c r="J2">
-        <v>1.028769213058662</v>
+        <v>1.041300418226947</v>
       </c>
       <c r="K2">
-        <v>1.031511204056946</v>
+        <v>1.046926478096904</v>
       </c>
       <c r="L2">
-        <v>1.031682025469607</v>
+        <v>1.047371032052837</v>
       </c>
       <c r="M2">
-        <v>1.038194407599976</v>
+        <v>1.056940644597213</v>
       </c>
       <c r="N2">
-        <v>1.013534558401491</v>
+        <v>1.017728136148673</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010982285584864</v>
+        <v>1.037072593924504</v>
       </c>
       <c r="D3">
-        <v>1.023833750480497</v>
+        <v>1.044942300383873</v>
       </c>
       <c r="E3">
-        <v>1.023993508240191</v>
+        <v>1.04538887952995</v>
       </c>
       <c r="F3">
-        <v>1.030969693609465</v>
+        <v>1.055079629460442</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051098302202086</v>
+        <v>1.034415789990778</v>
       </c>
       <c r="J3">
-        <v>1.03117797478034</v>
+        <v>1.041826462379673</v>
       </c>
       <c r="K3">
-        <v>1.034170492439434</v>
+        <v>1.047525389922442</v>
       </c>
       <c r="L3">
-        <v>1.034328322936265</v>
+        <v>1.047970803474062</v>
       </c>
       <c r="M3">
-        <v>1.04122107188694</v>
+        <v>1.057636522199884</v>
       </c>
       <c r="N3">
-        <v>1.014332021134051</v>
+        <v>1.017902013226897</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013640241772336</v>
+        <v>1.037643330380918</v>
       </c>
       <c r="D4">
-        <v>1.026061635314816</v>
+        <v>1.045452445399541</v>
       </c>
       <c r="E4">
-        <v>1.026213608283228</v>
+        <v>1.045899603874789</v>
       </c>
       <c r="F4">
-        <v>1.033430048215364</v>
+        <v>1.055651633680546</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051700369949802</v>
+        <v>1.034481736725959</v>
       </c>
       <c r="J4">
-        <v>1.032701349519105</v>
+        <v>1.04216632964216</v>
       </c>
       <c r="K4">
-        <v>1.03585537424562</v>
+        <v>1.047912738532236</v>
       </c>
       <c r="L4">
-        <v>1.036005626461704</v>
+        <v>1.048358788607165</v>
       </c>
       <c r="M4">
-        <v>1.043141073291985</v>
+        <v>1.058086896574145</v>
       </c>
       <c r="N4">
-        <v>1.014836357630612</v>
+        <v>1.018014339468699</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014744915047974</v>
+        <v>1.037883296654477</v>
       </c>
       <c r="D5">
-        <v>1.026988814794782</v>
+        <v>1.045667021121109</v>
       </c>
       <c r="E5">
-        <v>1.027137716229637</v>
+        <v>1.046114442402931</v>
       </c>
       <c r="F5">
-        <v>1.034454290589276</v>
+        <v>1.055892278297334</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051946365862009</v>
+        <v>1.034508941558404</v>
       </c>
       <c r="J5">
-        <v>1.033333556017212</v>
+        <v>1.042309084398089</v>
       </c>
       <c r="K5">
-        <v>1.036555348795406</v>
+        <v>1.048075533610257</v>
       </c>
       <c r="L5">
-        <v>1.036702609923271</v>
+        <v>1.048521870515746</v>
       </c>
       <c r="M5">
-        <v>1.043939298000198</v>
+        <v>1.058276255161184</v>
       </c>
       <c r="N5">
-        <v>1.015045657116909</v>
+        <v>1.018061516948912</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014929659752721</v>
+        <v>1.03792358968616</v>
       </c>
       <c r="D6">
-        <v>1.027143947939436</v>
+        <v>1.045703055773332</v>
       </c>
       <c r="E6">
-        <v>1.027292345335169</v>
+        <v>1.04615052231086</v>
       </c>
       <c r="F6">
-        <v>1.034625682836098</v>
+        <v>1.055932693741139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05198725559219</v>
+        <v>1.034513478896466</v>
       </c>
       <c r="J6">
-        <v>1.033439230430832</v>
+        <v>1.042333046155419</v>
       </c>
       <c r="K6">
-        <v>1.036672394572707</v>
+        <v>1.048102864865141</v>
       </c>
       <c r="L6">
-        <v>1.03681916481491</v>
+        <v>1.048549251059068</v>
       </c>
       <c r="M6">
-        <v>1.044072806354674</v>
+        <v>1.058308050499115</v>
       </c>
       <c r="N6">
-        <v>1.015080641725012</v>
+        <v>1.018069435634253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013655051957179</v>
+        <v>1.037646536711211</v>
       </c>
       <c r="D7">
-        <v>1.026074060982927</v>
+        <v>1.045455312137822</v>
       </c>
       <c r="E7">
-        <v>1.026225992124003</v>
+        <v>1.045902474049035</v>
       </c>
       <c r="F7">
-        <v>1.033443773421526</v>
+        <v>1.055654848504086</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051703684768674</v>
+        <v>1.034482102279497</v>
       </c>
       <c r="J7">
-        <v>1.032709829108865</v>
+        <v>1.04216823763276</v>
       </c>
       <c r="K7">
-        <v>1.035864759845835</v>
+        <v>1.047914913991667</v>
       </c>
       <c r="L7">
-        <v>1.036014971333623</v>
+        <v>1.048360967823641</v>
       </c>
       <c r="M7">
-        <v>1.043151774014299</v>
+        <v>1.058089426711512</v>
       </c>
       <c r="N7">
-        <v>1.014839164909942</v>
+        <v>1.018014970031821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008218235755584</v>
+        <v>1.036488747762932</v>
       </c>
       <c r="D8">
-        <v>1.021521358540162</v>
+        <v>1.044420728832614</v>
       </c>
       <c r="E8">
-        <v>1.021689778423106</v>
+        <v>1.044866780872099</v>
       </c>
       <c r="F8">
-        <v>1.028417081561991</v>
+        <v>1.054494982676005</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050457744298525</v>
+        <v>1.034346549624798</v>
       </c>
       <c r="J8">
-        <v>1.029590700967194</v>
+        <v>1.041478303877035</v>
       </c>
       <c r="K8">
-        <v>1.032417491669726</v>
+        <v>1.04712892110348</v>
       </c>
       <c r="L8">
-        <v>1.032583749285831</v>
+        <v>1.04757374894179</v>
       </c>
       <c r="M8">
-        <v>1.039225406398207</v>
+        <v>1.057175799083517</v>
       </c>
       <c r="N8">
-        <v>1.01380652624596</v>
+        <v>1.017786936515901</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9981973811056295</v>
+        <v>1.034449603823397</v>
       </c>
       <c r="D9">
-        <v>1.013174371240058</v>
+        <v>1.042601335526127</v>
       </c>
       <c r="E9">
-        <v>1.013378607575022</v>
+        <v>1.043046047617203</v>
       </c>
       <c r="F9">
-        <v>1.01921084892221</v>
+        <v>1.052456854771239</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048025948138928</v>
+        <v>1.034091152673125</v>
       </c>
       <c r="J9">
-        <v>1.02381395547283</v>
+        <v>1.040258639249714</v>
       </c>
       <c r="K9">
-        <v>1.02605725938597</v>
+        <v>1.04574252821356</v>
       </c>
       <c r="L9">
-        <v>1.026258292286633</v>
+        <v>1.046185810311175</v>
       </c>
       <c r="M9">
-        <v>1.03199974722649</v>
+        <v>1.055566666462981</v>
       </c>
       <c r="N9">
-        <v>1.011894075007733</v>
+        <v>1.017383724258817</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9911912521634128</v>
+        <v>1.03309095096386</v>
       </c>
       <c r="D10">
-        <v>1.007371152725917</v>
+        <v>1.04139097897077</v>
       </c>
       <c r="E10">
-        <v>1.007604106783454</v>
+        <v>1.041835211638713</v>
       </c>
       <c r="F10">
-        <v>1.01281631172934</v>
+        <v>1.05110204304083</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046238069758976</v>
+        <v>1.033909826492568</v>
       </c>
       <c r="J10">
-        <v>1.019758773894888</v>
+        <v>1.039442975433712</v>
       </c>
       <c r="K10">
-        <v>1.021608582025548</v>
+        <v>1.044817426146402</v>
       </c>
       <c r="L10">
-        <v>1.021837410733089</v>
+        <v>1.045260090425895</v>
       </c>
       <c r="M10">
-        <v>1.026957956200246</v>
+        <v>1.054494537567976</v>
       </c>
       <c r="N10">
-        <v>1.010551677763393</v>
+        <v>1.017114009564658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9880732193767384</v>
+        <v>1.032502840965964</v>
       </c>
       <c r="D11">
-        <v>1.004796829040419</v>
+        <v>1.040867512534391</v>
       </c>
       <c r="E11">
-        <v>1.005043438474738</v>
+        <v>1.041311635757129</v>
       </c>
       <c r="F11">
-        <v>1.009980994768978</v>
+        <v>1.050516351096417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045422467517881</v>
+        <v>1.033828698204864</v>
       </c>
       <c r="J11">
-        <v>1.017950723648467</v>
+        <v>1.039089194160192</v>
       </c>
       <c r="K11">
-        <v>1.019628847625283</v>
+        <v>1.044416664711632</v>
       </c>
       <c r="L11">
-        <v>1.019870865590278</v>
+        <v>1.044859159245036</v>
       </c>
       <c r="M11">
-        <v>1.024717107254582</v>
+        <v>1.054030461372824</v>
       </c>
       <c r="N11">
-        <v>1.009953200738294</v>
+        <v>1.016997010660788</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986901724033498</v>
+        <v>1.03228442148629</v>
       </c>
       <c r="D12">
-        <v>1.003830926357068</v>
+        <v>1.040673169520989</v>
       </c>
       <c r="E12">
-        <v>1.004082798079303</v>
+        <v>1.041117266837687</v>
       </c>
       <c r="F12">
-        <v>1.008917353017534</v>
+        <v>1.050298943575119</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045113116063063</v>
+        <v>1.033798171884199</v>
       </c>
       <c r="J12">
-        <v>1.017270960715934</v>
+        <v>1.038957696135303</v>
       </c>
       <c r="K12">
-        <v>1.018885098064655</v>
+        <v>1.044267777467823</v>
       </c>
       <c r="L12">
-        <v>1.019132193922154</v>
+        <v>1.044710223632896</v>
       </c>
       <c r="M12">
-        <v>1.023875681774734</v>
+        <v>1.053858108753001</v>
       </c>
       <c r="N12">
-        <v>1.00972820324164</v>
+        <v>1.016953520845894</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9871536273770488</v>
+        <v>1.032331271792353</v>
       </c>
       <c r="D13">
-        <v>1.004038561461911</v>
+        <v>1.040714852398141</v>
       </c>
       <c r="E13">
-        <v>1.004289295690791</v>
+        <v>1.04115895460443</v>
       </c>
       <c r="F13">
-        <v>1.009145990295309</v>
+        <v>1.050345571657518</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045179765569754</v>
+        <v>1.033804737592962</v>
       </c>
       <c r="J13">
-        <v>1.017417147710812</v>
+        <v>1.038985906865997</v>
       </c>
       <c r="K13">
-        <v>1.019045020501043</v>
+        <v>1.044299715469084</v>
       </c>
       <c r="L13">
-        <v>1.019291018948495</v>
+        <v>1.044742171344995</v>
       </c>
       <c r="M13">
-        <v>1.024056587779531</v>
+        <v>1.053895077777083</v>
       </c>
       <c r="N13">
-        <v>1.009776589848983</v>
+        <v>1.016962850964267</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9879766588177037</v>
+        <v>1.032484785708288</v>
       </c>
       <c r="D14">
-        <v>1.004717187455683</v>
+        <v>1.040851446117713</v>
       </c>
       <c r="E14">
-        <v>1.004964227954263</v>
+        <v>1.041295566898212</v>
       </c>
       <c r="F14">
-        <v>1.009893290557759</v>
+        <v>1.050498377164141</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045397028049393</v>
+        <v>1.033826182874355</v>
       </c>
       <c r="J14">
-        <v>1.017894702997644</v>
+        <v>1.039078326278507</v>
       </c>
       <c r="K14">
-        <v>1.019567542338102</v>
+        <v>1.044404358180458</v>
       </c>
       <c r="L14">
-        <v>1.019809976362148</v>
+        <v>1.044846848416229</v>
       </c>
       <c r="M14">
-        <v>1.02464774229535</v>
+        <v>1.054016214113647</v>
       </c>
       <c r="N14">
-        <v>1.009934658048725</v>
+        <v>1.016993416413333</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9884819705964937</v>
+        <v>1.032579374815106</v>
       </c>
       <c r="D15">
-        <v>1.005134014264258</v>
+        <v>1.040935618751807</v>
       </c>
       <c r="E15">
-        <v>1.005378804329853</v>
+        <v>1.041379752930619</v>
       </c>
       <c r="F15">
-        <v>1.010352322981859</v>
+        <v>1.050592544885701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045530037085705</v>
+        <v>1.033839344147399</v>
       </c>
       <c r="J15">
-        <v>1.018187847066758</v>
+        <v>1.039135257317493</v>
       </c>
       <c r="K15">
-        <v>1.019888362597015</v>
+        <v>1.04446882852403</v>
       </c>
       <c r="L15">
-        <v>1.020128624328846</v>
+        <v>1.044911341875487</v>
       </c>
       <c r="M15">
-        <v>1.025010757182408</v>
+        <v>1.054090853690915</v>
       </c>
       <c r="N15">
-        <v>1.010031688336887</v>
+        <v>1.01701224467234</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9913963545001285</v>
+        <v>1.033129986126308</v>
       </c>
       <c r="D16">
-        <v>1.007540669129463</v>
+        <v>1.04142573304625</v>
       </c>
       <c r="E16">
-        <v>1.007772743199353</v>
+        <v>1.041869975045672</v>
       </c>
       <c r="F16">
-        <v>1.013003040850519</v>
+        <v>1.051140933660922</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046291310871548</v>
+        <v>1.033915155736111</v>
       </c>
       <c r="J16">
-        <v>1.01987764133798</v>
+        <v>1.039466442335281</v>
       </c>
       <c r="K16">
-        <v>1.021738814510674</v>
+        <v>1.044844019557689</v>
       </c>
       <c r="L16">
-        <v>1.021966792654897</v>
+        <v>1.04528669716209</v>
       </c>
       <c r="M16">
-        <v>1.027105424078447</v>
+        <v>1.054525340332526</v>
       </c>
       <c r="N16">
-        <v>1.010591024813923</v>
+        <v>1.017121769995534</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9932014472709054</v>
+        <v>1.033475423401949</v>
       </c>
       <c r="D17">
-        <v>1.009033530983232</v>
+        <v>1.0417333375704</v>
       </c>
       <c r="E17">
-        <v>1.009257959970174</v>
+        <v>1.042177673480624</v>
       </c>
       <c r="F17">
-        <v>1.014647637069268</v>
+        <v>1.051485179155849</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046757623671942</v>
+        <v>1.03396201143808</v>
       </c>
       <c r="J17">
-        <v>1.020923414298353</v>
+        <v>1.039674027948001</v>
       </c>
       <c r="K17">
-        <v>1.022885002152452</v>
+        <v>1.045079318110548</v>
       </c>
       <c r="L17">
-        <v>1.023105587715714</v>
+        <v>1.045522124918564</v>
       </c>
       <c r="M17">
-        <v>1.028403623621703</v>
+        <v>1.05479792694172</v>
       </c>
       <c r="N17">
-        <v>1.010937198115392</v>
+        <v>1.017190416246308</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9942462365046996</v>
+        <v>1.033676929907263</v>
       </c>
       <c r="D18">
-        <v>1.009898390529567</v>
+        <v>1.041912818366376</v>
       </c>
       <c r="E18">
-        <v>1.010118477540729</v>
+        <v>1.042357218522969</v>
       </c>
       <c r="F18">
-        <v>1.01560052687219</v>
+        <v>1.051686063319217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047025630178686</v>
+        <v>1.033989089414531</v>
       </c>
       <c r="J18">
-        <v>1.02152839033609</v>
+        <v>1.039795051780081</v>
       </c>
       <c r="K18">
-        <v>1.023548424587473</v>
+        <v>1.045216545725257</v>
       </c>
       <c r="L18">
-        <v>1.023764809084342</v>
+        <v>1.04565943732967</v>
       </c>
       <c r="M18">
-        <v>1.029155300798807</v>
+        <v>1.054956937696258</v>
       </c>
       <c r="N18">
-        <v>1.011137462470347</v>
+        <v>1.01723043608805</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9946011293033892</v>
+        <v>1.033745641563171</v>
       </c>
       <c r="D19">
-        <v>1.010192297368863</v>
+        <v>1.041974026852881</v>
       </c>
       <c r="E19">
-        <v>1.010410923574031</v>
+        <v>1.042418450522035</v>
       </c>
       <c r="F19">
-        <v>1.015924370883946</v>
+        <v>1.05175457510968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047116342515053</v>
+        <v>1.033998279506537</v>
       </c>
       <c r="J19">
-        <v>1.021733832476316</v>
+        <v>1.039836308014571</v>
       </c>
       <c r="K19">
-        <v>1.023773775046994</v>
+        <v>1.045263333692428</v>
       </c>
       <c r="L19">
-        <v>1.023988745738679</v>
+        <v>1.045706255810609</v>
       </c>
       <c r="M19">
-        <v>1.029410675312048</v>
+        <v>1.055011158854178</v>
       </c>
       <c r="N19">
-        <v>1.011205470367831</v>
+        <v>1.017244078354</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9930086193285945</v>
+        <v>1.033438359298352</v>
       </c>
       <c r="D20">
-        <v>1.008873974589481</v>
+        <v>1.041700328268696</v>
       </c>
       <c r="E20">
-        <v>1.009099211644558</v>
+        <v>1.042144653123669</v>
       </c>
       <c r="F20">
-        <v>1.014471850383892</v>
+        <v>1.051448235385881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04670800622365</v>
+        <v>1.033957010340508</v>
       </c>
       <c r="J20">
-        <v>1.02081173290587</v>
+        <v>1.039651761898575</v>
       </c>
       <c r="K20">
-        <v>1.022762560163568</v>
+        <v>1.045054074659821</v>
       </c>
       <c r="L20">
-        <v>1.022983927371226</v>
+        <v>1.045496866629745</v>
       </c>
       <c r="M20">
-        <v>1.02826491502147</v>
+        <v>1.05476867935413</v>
       </c>
       <c r="N20">
-        <v>1.010900228718765</v>
+        <v>1.0171830532555</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9877346696747403</v>
+        <v>1.032439578826242</v>
       </c>
       <c r="D21">
-        <v>1.004517620068954</v>
+        <v>1.040811220015715</v>
       </c>
       <c r="E21">
-        <v>1.004765742975557</v>
+        <v>1.041255334919479</v>
       </c>
       <c r="F21">
-        <v>1.009673522670579</v>
+        <v>1.05045337574688</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045333227810762</v>
+        <v>1.033819878578192</v>
       </c>
       <c r="J21">
-        <v>1.017754303317807</v>
+        <v>1.039051113481675</v>
       </c>
       <c r="K21">
-        <v>1.019413907248668</v>
+        <v>1.044373544233582</v>
       </c>
       <c r="L21">
-        <v>1.019657385924021</v>
+        <v>1.04481602394596</v>
       </c>
       <c r="M21">
-        <v>1.024473915884856</v>
+        <v>1.053980541753635</v>
       </c>
       <c r="N21">
-        <v>1.009888186266111</v>
+        <v>1.016984416508531</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.984341314374223</v>
+        <v>1.031811784537034</v>
       </c>
       <c r="D22">
-        <v>1.001722335432067</v>
+        <v>1.040252757053672</v>
       </c>
       <c r="E22">
-        <v>1.0019859509942</v>
+        <v>1.040696825273824</v>
       </c>
       <c r="F22">
-        <v>1.006595727245396</v>
+        <v>1.049828705157227</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044431723709802</v>
+        <v>1.033731392792918</v>
       </c>
       <c r="J22">
-        <v>1.015784507011567</v>
+        <v>1.038672953989994</v>
       </c>
       <c r="K22">
-        <v>1.017259749562551</v>
+        <v>1.043945514496589</v>
       </c>
       <c r="L22">
-        <v>1.017518168201863</v>
+        <v>1.044387882828125</v>
       </c>
       <c r="M22">
-        <v>1.02203764417209</v>
+        <v>1.053485159193174</v>
       </c>
       <c r="N22">
-        <v>1.009236213776764</v>
+        <v>1.016859345329745</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9861477623313959</v>
+        <v>1.032144572781129</v>
       </c>
       <c r="D23">
-        <v>1.003209658914051</v>
+        <v>1.040548755696897</v>
       </c>
       <c r="E23">
-        <v>1.003464954555607</v>
+        <v>1.040992840577033</v>
       </c>
       <c r="F23">
-        <v>1.008233271332008</v>
+        <v>1.05015977492228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044913208689787</v>
+        <v>1.033778515240172</v>
       </c>
       <c r="J23">
-        <v>1.016833352397978</v>
+        <v>1.038873471226911</v>
       </c>
       <c r="K23">
-        <v>1.018406454755935</v>
+        <v>1.044172435232021</v>
       </c>
       <c r="L23">
-        <v>1.018656853133098</v>
+        <v>1.044614854558651</v>
       </c>
       <c r="M23">
-        <v>1.02333429638448</v>
+        <v>1.053747756065572</v>
       </c>
       <c r="N23">
-        <v>1.009583360150236</v>
+        <v>1.01692566488</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9930957749315136</v>
+        <v>1.033455106913425</v>
       </c>
       <c r="D24">
-        <v>1.008946089461202</v>
+        <v>1.041715243565188</v>
       </c>
       <c r="E24">
-        <v>1.009170961023172</v>
+        <v>1.042159573386296</v>
       </c>
       <c r="F24">
-        <v>1.014551300486359</v>
+        <v>1.051464928402489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046730438517519</v>
+        <v>1.033959270900448</v>
       </c>
       <c r="J24">
-        <v>1.020862212364156</v>
+        <v>1.039661823145183</v>
       </c>
       <c r="K24">
-        <v>1.022817902253297</v>
+        <v>1.045065481144521</v>
       </c>
       <c r="L24">
-        <v>1.023038915927194</v>
+        <v>1.045508279789991</v>
       </c>
       <c r="M24">
-        <v>1.02832760856054</v>
+        <v>1.054781895031974</v>
       </c>
       <c r="N24">
-        <v>1.010916938697027</v>
+        <v>1.017186380337046</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000843128042918</v>
+        <v>1.034976640775201</v>
       </c>
       <c r="D25">
-        <v>1.015372749855528</v>
+        <v>1.04307124633241</v>
       </c>
       <c r="E25">
-        <v>1.015566896594109</v>
+        <v>1.043516231874161</v>
       </c>
       <c r="F25">
-        <v>1.021634441851215</v>
+        <v>1.052983072877695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048683399750235</v>
+        <v>1.034159132662095</v>
       </c>
       <c r="J25">
-        <v>1.025342150843754</v>
+        <v>1.040574407567709</v>
       </c>
       <c r="K25">
-        <v>1.027737020384939</v>
+        <v>1.046101098135735</v>
       </c>
       <c r="L25">
-        <v>1.027928268933052</v>
+        <v>1.046544707067572</v>
       </c>
       <c r="M25">
-        <v>1.033905943821948</v>
+        <v>1.055982562081919</v>
       </c>
       <c r="N25">
-        <v>1.01239998690913</v>
+        <v>1.017488126020598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036190752139612</v>
+        <v>1.006789701500184</v>
       </c>
       <c r="D2">
-        <v>1.044154630400617</v>
+        <v>1.020327988483103</v>
       </c>
       <c r="E2">
-        <v>1.044600438516409</v>
+        <v>1.020501102054887</v>
       </c>
       <c r="F2">
-        <v>1.05419676900061</v>
+        <v>1.027100139030749</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034310528346633</v>
+        <v>1.050121220413721</v>
       </c>
       <c r="J2">
-        <v>1.041300418226947</v>
+        <v>1.028769213058661</v>
       </c>
       <c r="K2">
-        <v>1.046926478096904</v>
+        <v>1.031511204056945</v>
       </c>
       <c r="L2">
-        <v>1.047371032052837</v>
+        <v>1.031682025469606</v>
       </c>
       <c r="M2">
-        <v>1.056940644597213</v>
+        <v>1.038194407599975</v>
       </c>
       <c r="N2">
-        <v>1.017728136148673</v>
+        <v>1.01353455840149</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037072593924504</v>
+        <v>1.010982285584864</v>
       </c>
       <c r="D3">
-        <v>1.044942300383873</v>
+        <v>1.023833750480497</v>
       </c>
       <c r="E3">
-        <v>1.04538887952995</v>
+        <v>1.023993508240191</v>
       </c>
       <c r="F3">
-        <v>1.055079629460442</v>
+        <v>1.030969693609465</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034415789990778</v>
+        <v>1.051098302202086</v>
       </c>
       <c r="J3">
-        <v>1.041826462379673</v>
+        <v>1.03117797478034</v>
       </c>
       <c r="K3">
-        <v>1.047525389922442</v>
+        <v>1.034170492439434</v>
       </c>
       <c r="L3">
-        <v>1.047970803474062</v>
+        <v>1.034328322936264</v>
       </c>
       <c r="M3">
-        <v>1.057636522199884</v>
+        <v>1.04122107188694</v>
       </c>
       <c r="N3">
-        <v>1.017902013226897</v>
+        <v>1.014332021134051</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037643330380918</v>
+        <v>1.013640241772336</v>
       </c>
       <c r="D4">
-        <v>1.045452445399541</v>
+        <v>1.026061635314816</v>
       </c>
       <c r="E4">
-        <v>1.045899603874789</v>
+        <v>1.026213608283228</v>
       </c>
       <c r="F4">
-        <v>1.055651633680546</v>
+        <v>1.033430048215364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034481736725959</v>
+        <v>1.051700369949802</v>
       </c>
       <c r="J4">
-        <v>1.04216632964216</v>
+        <v>1.032701349519105</v>
       </c>
       <c r="K4">
-        <v>1.047912738532236</v>
+        <v>1.03585537424562</v>
       </c>
       <c r="L4">
-        <v>1.048358788607165</v>
+        <v>1.036005626461703</v>
       </c>
       <c r="M4">
-        <v>1.058086896574145</v>
+        <v>1.043141073291985</v>
       </c>
       <c r="N4">
-        <v>1.018014339468699</v>
+        <v>1.014836357630612</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037883296654477</v>
+        <v>1.014744915047974</v>
       </c>
       <c r="D5">
-        <v>1.045667021121109</v>
+        <v>1.026988814794782</v>
       </c>
       <c r="E5">
-        <v>1.046114442402931</v>
+        <v>1.027137716229637</v>
       </c>
       <c r="F5">
-        <v>1.055892278297334</v>
+        <v>1.034454290589276</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034508941558404</v>
+        <v>1.051946365862009</v>
       </c>
       <c r="J5">
-        <v>1.042309084398089</v>
+        <v>1.033333556017212</v>
       </c>
       <c r="K5">
-        <v>1.048075533610257</v>
+        <v>1.036555348795406</v>
       </c>
       <c r="L5">
-        <v>1.048521870515746</v>
+        <v>1.036702609923271</v>
       </c>
       <c r="M5">
-        <v>1.058276255161184</v>
+        <v>1.043939298000198</v>
       </c>
       <c r="N5">
-        <v>1.018061516948912</v>
+        <v>1.015045657116909</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03792358968616</v>
+        <v>1.01492965975272</v>
       </c>
       <c r="D6">
-        <v>1.045703055773332</v>
+        <v>1.027143947939436</v>
       </c>
       <c r="E6">
-        <v>1.04615052231086</v>
+        <v>1.027292345335168</v>
       </c>
       <c r="F6">
-        <v>1.055932693741139</v>
+        <v>1.034625682836097</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034513478896466</v>
+        <v>1.05198725559219</v>
       </c>
       <c r="J6">
-        <v>1.042333046155419</v>
+        <v>1.033439230430831</v>
       </c>
       <c r="K6">
-        <v>1.048102864865141</v>
+        <v>1.036672394572706</v>
       </c>
       <c r="L6">
-        <v>1.048549251059068</v>
+        <v>1.036819164814909</v>
       </c>
       <c r="M6">
-        <v>1.058308050499115</v>
+        <v>1.044072806354673</v>
       </c>
       <c r="N6">
-        <v>1.018069435634253</v>
+        <v>1.015080641725012</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037646536711211</v>
+        <v>1.013655051957179</v>
       </c>
       <c r="D7">
-        <v>1.045455312137822</v>
+        <v>1.026074060982927</v>
       </c>
       <c r="E7">
-        <v>1.045902474049035</v>
+        <v>1.026225992124003</v>
       </c>
       <c r="F7">
-        <v>1.055654848504086</v>
+        <v>1.033443773421526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034482102279497</v>
+        <v>1.051703684768674</v>
       </c>
       <c r="J7">
-        <v>1.04216823763276</v>
+        <v>1.032709829108866</v>
       </c>
       <c r="K7">
-        <v>1.047914913991667</v>
+        <v>1.035864759845835</v>
       </c>
       <c r="L7">
-        <v>1.048360967823641</v>
+        <v>1.036014971333623</v>
       </c>
       <c r="M7">
-        <v>1.058089426711512</v>
+        <v>1.043151774014299</v>
       </c>
       <c r="N7">
-        <v>1.018014970031821</v>
+        <v>1.014839164909942</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036488747762932</v>
+        <v>1.008218235755584</v>
       </c>
       <c r="D8">
-        <v>1.044420728832614</v>
+        <v>1.021521358540161</v>
       </c>
       <c r="E8">
-        <v>1.044866780872099</v>
+        <v>1.021689778423105</v>
       </c>
       <c r="F8">
-        <v>1.054494982676005</v>
+        <v>1.02841708156199</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034346549624798</v>
+        <v>1.050457744298524</v>
       </c>
       <c r="J8">
-        <v>1.041478303877035</v>
+        <v>1.029590700967193</v>
       </c>
       <c r="K8">
-        <v>1.04712892110348</v>
+        <v>1.032417491669726</v>
       </c>
       <c r="L8">
-        <v>1.04757374894179</v>
+        <v>1.032583749285831</v>
       </c>
       <c r="M8">
-        <v>1.057175799083517</v>
+        <v>1.039225406398206</v>
       </c>
       <c r="N8">
-        <v>1.017786936515901</v>
+        <v>1.01380652624596</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034449603823397</v>
+        <v>0.9981973811056304</v>
       </c>
       <c r="D9">
-        <v>1.042601335526127</v>
+        <v>1.013174371240059</v>
       </c>
       <c r="E9">
-        <v>1.043046047617203</v>
+        <v>1.013378607575022</v>
       </c>
       <c r="F9">
-        <v>1.052456854771239</v>
+        <v>1.019210848922211</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034091152673125</v>
+        <v>1.048025948138929</v>
       </c>
       <c r="J9">
-        <v>1.040258639249714</v>
+        <v>1.023813955472831</v>
       </c>
       <c r="K9">
-        <v>1.04574252821356</v>
+        <v>1.026057259385971</v>
       </c>
       <c r="L9">
-        <v>1.046185810311175</v>
+        <v>1.026258292286634</v>
       </c>
       <c r="M9">
-        <v>1.055566666462981</v>
+        <v>1.031999747226491</v>
       </c>
       <c r="N9">
-        <v>1.017383724258817</v>
+        <v>1.011894075007733</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03309095096386</v>
+        <v>0.9911912521634128</v>
       </c>
       <c r="D10">
-        <v>1.04139097897077</v>
+        <v>1.007371152725917</v>
       </c>
       <c r="E10">
-        <v>1.041835211638713</v>
+        <v>1.007604106783455</v>
       </c>
       <c r="F10">
-        <v>1.05110204304083</v>
+        <v>1.01281631172934</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033909826492568</v>
+        <v>1.046238069758976</v>
       </c>
       <c r="J10">
-        <v>1.039442975433712</v>
+        <v>1.019758773894888</v>
       </c>
       <c r="K10">
-        <v>1.044817426146402</v>
+        <v>1.021608582025548</v>
       </c>
       <c r="L10">
-        <v>1.045260090425895</v>
+        <v>1.021837410733089</v>
       </c>
       <c r="M10">
-        <v>1.054494537567976</v>
+        <v>1.026957956200246</v>
       </c>
       <c r="N10">
-        <v>1.017114009564658</v>
+        <v>1.010551677763393</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032502840965964</v>
+        <v>0.9880732193767378</v>
       </c>
       <c r="D11">
-        <v>1.040867512534391</v>
+        <v>1.004796829040419</v>
       </c>
       <c r="E11">
-        <v>1.041311635757129</v>
+        <v>1.005043438474737</v>
       </c>
       <c r="F11">
-        <v>1.050516351096417</v>
+        <v>1.009980994768978</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033828698204864</v>
+        <v>1.045422467517881</v>
       </c>
       <c r="J11">
-        <v>1.039089194160192</v>
+        <v>1.017950723648466</v>
       </c>
       <c r="K11">
-        <v>1.044416664711632</v>
+        <v>1.019628847625282</v>
       </c>
       <c r="L11">
-        <v>1.044859159245036</v>
+        <v>1.019870865590277</v>
       </c>
       <c r="M11">
-        <v>1.054030461372824</v>
+        <v>1.024717107254581</v>
       </c>
       <c r="N11">
-        <v>1.016997010660788</v>
+        <v>1.009953200738294</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03228442148629</v>
+        <v>0.9869017240334961</v>
       </c>
       <c r="D12">
-        <v>1.040673169520989</v>
+        <v>1.003830926357066</v>
       </c>
       <c r="E12">
-        <v>1.041117266837687</v>
+        <v>1.004082798079301</v>
       </c>
       <c r="F12">
-        <v>1.050298943575119</v>
+        <v>1.008917353017532</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033798171884199</v>
+        <v>1.045113116063062</v>
       </c>
       <c r="J12">
-        <v>1.038957696135303</v>
+        <v>1.017270960715932</v>
       </c>
       <c r="K12">
-        <v>1.044267777467823</v>
+        <v>1.018885098064653</v>
       </c>
       <c r="L12">
-        <v>1.044710223632896</v>
+        <v>1.019132193922152</v>
       </c>
       <c r="M12">
-        <v>1.053858108753001</v>
+        <v>1.023875681774732</v>
       </c>
       <c r="N12">
-        <v>1.016953520845894</v>
+        <v>1.009728203241639</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032331271792353</v>
+        <v>0.9871536273770478</v>
       </c>
       <c r="D13">
-        <v>1.040714852398141</v>
+        <v>1.004038561461909</v>
       </c>
       <c r="E13">
-        <v>1.04115895460443</v>
+        <v>1.00428929569079</v>
       </c>
       <c r="F13">
-        <v>1.050345571657518</v>
+        <v>1.009145990295307</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033804737592962</v>
+        <v>1.045179765569754</v>
       </c>
       <c r="J13">
-        <v>1.038985906865997</v>
+        <v>1.017417147710811</v>
       </c>
       <c r="K13">
-        <v>1.044299715469084</v>
+        <v>1.019045020501042</v>
       </c>
       <c r="L13">
-        <v>1.044742171344995</v>
+        <v>1.019291018948494</v>
       </c>
       <c r="M13">
-        <v>1.053895077777083</v>
+        <v>1.02405658777953</v>
       </c>
       <c r="N13">
-        <v>1.016962850964267</v>
+        <v>1.009776589848983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032484785708288</v>
+        <v>0.9879766588177028</v>
       </c>
       <c r="D14">
-        <v>1.040851446117713</v>
+        <v>1.004717187455682</v>
       </c>
       <c r="E14">
-        <v>1.041295566898212</v>
+        <v>1.004964227954263</v>
       </c>
       <c r="F14">
-        <v>1.050498377164141</v>
+        <v>1.009893290557759</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033826182874355</v>
+        <v>1.045397028049393</v>
       </c>
       <c r="J14">
-        <v>1.039078326278507</v>
+        <v>1.017894702997644</v>
       </c>
       <c r="K14">
-        <v>1.044404358180458</v>
+        <v>1.019567542338101</v>
       </c>
       <c r="L14">
-        <v>1.044846848416229</v>
+        <v>1.019809976362148</v>
       </c>
       <c r="M14">
-        <v>1.054016214113647</v>
+        <v>1.024647742295349</v>
       </c>
       <c r="N14">
-        <v>1.016993416413333</v>
+        <v>1.009934658048725</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032579374815106</v>
+        <v>0.9884819705964931</v>
       </c>
       <c r="D15">
-        <v>1.040935618751807</v>
+        <v>1.005134014264258</v>
       </c>
       <c r="E15">
-        <v>1.041379752930619</v>
+        <v>1.005378804329852</v>
       </c>
       <c r="F15">
-        <v>1.050592544885701</v>
+        <v>1.010352322981859</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033839344147399</v>
+        <v>1.045530037085705</v>
       </c>
       <c r="J15">
-        <v>1.039135257317493</v>
+        <v>1.018187847066758</v>
       </c>
       <c r="K15">
-        <v>1.04446882852403</v>
+        <v>1.019888362597015</v>
       </c>
       <c r="L15">
-        <v>1.044911341875487</v>
+        <v>1.020128624328846</v>
       </c>
       <c r="M15">
-        <v>1.054090853690915</v>
+        <v>1.025010757182407</v>
       </c>
       <c r="N15">
-        <v>1.01701224467234</v>
+        <v>1.010031688336887</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033129986126308</v>
+        <v>0.9913963545001286</v>
       </c>
       <c r="D16">
-        <v>1.04142573304625</v>
+        <v>1.007540669129463</v>
       </c>
       <c r="E16">
-        <v>1.041869975045672</v>
+        <v>1.007772743199353</v>
       </c>
       <c r="F16">
-        <v>1.051140933660922</v>
+        <v>1.013003040850519</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033915155736111</v>
+        <v>1.046291310871548</v>
       </c>
       <c r="J16">
-        <v>1.039466442335281</v>
+        <v>1.01987764133798</v>
       </c>
       <c r="K16">
-        <v>1.044844019557689</v>
+        <v>1.021738814510674</v>
       </c>
       <c r="L16">
-        <v>1.04528669716209</v>
+        <v>1.021966792654897</v>
       </c>
       <c r="M16">
-        <v>1.054525340332526</v>
+        <v>1.027105424078447</v>
       </c>
       <c r="N16">
-        <v>1.017121769995534</v>
+        <v>1.010591024813923</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033475423401949</v>
+        <v>0.9932014472709048</v>
       </c>
       <c r="D17">
-        <v>1.0417333375704</v>
+        <v>1.009033530983231</v>
       </c>
       <c r="E17">
-        <v>1.042177673480624</v>
+        <v>1.009257959970173</v>
       </c>
       <c r="F17">
-        <v>1.051485179155849</v>
+        <v>1.014647637069267</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03396201143808</v>
+        <v>1.046757623671941</v>
       </c>
       <c r="J17">
-        <v>1.039674027948001</v>
+        <v>1.020923414298352</v>
       </c>
       <c r="K17">
-        <v>1.045079318110548</v>
+        <v>1.022885002152451</v>
       </c>
       <c r="L17">
-        <v>1.045522124918564</v>
+        <v>1.023105587715713</v>
       </c>
       <c r="M17">
-        <v>1.05479792694172</v>
+        <v>1.028403623621702</v>
       </c>
       <c r="N17">
-        <v>1.017190416246308</v>
+        <v>1.010937198115392</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033676929907263</v>
+        <v>0.9942462365046993</v>
       </c>
       <c r="D18">
-        <v>1.041912818366376</v>
+        <v>1.009898390529567</v>
       </c>
       <c r="E18">
-        <v>1.042357218522969</v>
+        <v>1.010118477540729</v>
       </c>
       <c r="F18">
-        <v>1.051686063319217</v>
+        <v>1.01560052687219</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033989089414531</v>
+        <v>1.047025630178686</v>
       </c>
       <c r="J18">
-        <v>1.039795051780081</v>
+        <v>1.02152839033609</v>
       </c>
       <c r="K18">
-        <v>1.045216545725257</v>
+        <v>1.023548424587473</v>
       </c>
       <c r="L18">
-        <v>1.04565943732967</v>
+        <v>1.023764809084342</v>
       </c>
       <c r="M18">
-        <v>1.054956937696258</v>
+        <v>1.029155300798806</v>
       </c>
       <c r="N18">
-        <v>1.01723043608805</v>
+        <v>1.011137462470347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033745641563171</v>
+        <v>0.9946011293033888</v>
       </c>
       <c r="D19">
-        <v>1.041974026852881</v>
+        <v>1.010192297368863</v>
       </c>
       <c r="E19">
-        <v>1.042418450522035</v>
+        <v>1.01041092357403</v>
       </c>
       <c r="F19">
-        <v>1.05175457510968</v>
+        <v>1.015924370883945</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033998279506537</v>
+        <v>1.047116342515053</v>
       </c>
       <c r="J19">
-        <v>1.039836308014571</v>
+        <v>1.021733832476316</v>
       </c>
       <c r="K19">
-        <v>1.045263333692428</v>
+        <v>1.023773775046994</v>
       </c>
       <c r="L19">
-        <v>1.045706255810609</v>
+        <v>1.023988745738678</v>
       </c>
       <c r="M19">
-        <v>1.055011158854178</v>
+        <v>1.029410675312047</v>
       </c>
       <c r="N19">
-        <v>1.017244078354</v>
+        <v>1.01120547036783</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033438359298352</v>
+        <v>0.9930086193285937</v>
       </c>
       <c r="D20">
-        <v>1.041700328268696</v>
+        <v>1.00887397458948</v>
       </c>
       <c r="E20">
-        <v>1.042144653123669</v>
+        <v>1.009099211644557</v>
       </c>
       <c r="F20">
-        <v>1.051448235385881</v>
+        <v>1.014471850383891</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033957010340508</v>
+        <v>1.04670800622365</v>
       </c>
       <c r="J20">
-        <v>1.039651761898575</v>
+        <v>1.020811732905869</v>
       </c>
       <c r="K20">
-        <v>1.045054074659821</v>
+        <v>1.022762560163567</v>
       </c>
       <c r="L20">
-        <v>1.045496866629745</v>
+        <v>1.022983927371225</v>
       </c>
       <c r="M20">
-        <v>1.05476867935413</v>
+        <v>1.02826491502147</v>
       </c>
       <c r="N20">
-        <v>1.0171830532555</v>
+        <v>1.010900228718764</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032439578826242</v>
+        <v>0.9877346696747407</v>
       </c>
       <c r="D21">
-        <v>1.040811220015715</v>
+        <v>1.004517620068955</v>
       </c>
       <c r="E21">
-        <v>1.041255334919479</v>
+        <v>1.004765742975557</v>
       </c>
       <c r="F21">
-        <v>1.05045337574688</v>
+        <v>1.009673522670579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033819878578192</v>
+        <v>1.045333227810761</v>
       </c>
       <c r="J21">
-        <v>1.039051113481675</v>
+        <v>1.017754303317807</v>
       </c>
       <c r="K21">
-        <v>1.044373544233582</v>
+        <v>1.019413907248668</v>
       </c>
       <c r="L21">
-        <v>1.04481602394596</v>
+        <v>1.019657385924021</v>
       </c>
       <c r="M21">
-        <v>1.053980541753635</v>
+        <v>1.024473915884856</v>
       </c>
       <c r="N21">
-        <v>1.016984416508531</v>
+        <v>1.009888186266111</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031811784537034</v>
+        <v>0.9843413143742228</v>
       </c>
       <c r="D22">
-        <v>1.040252757053672</v>
+        <v>1.001722335432067</v>
       </c>
       <c r="E22">
-        <v>1.040696825273824</v>
+        <v>1.001985950994199</v>
       </c>
       <c r="F22">
-        <v>1.049828705157227</v>
+        <v>1.006595727245395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033731392792918</v>
+        <v>1.044431723709802</v>
       </c>
       <c r="J22">
-        <v>1.038672953989994</v>
+        <v>1.015784507011566</v>
       </c>
       <c r="K22">
-        <v>1.043945514496589</v>
+        <v>1.01725974956255</v>
       </c>
       <c r="L22">
-        <v>1.044387882828125</v>
+        <v>1.017518168201862</v>
       </c>
       <c r="M22">
-        <v>1.053485159193174</v>
+        <v>1.022037644172089</v>
       </c>
       <c r="N22">
-        <v>1.016859345329745</v>
+        <v>1.009236213776764</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032144572781129</v>
+        <v>0.9861477623313954</v>
       </c>
       <c r="D23">
-        <v>1.040548755696897</v>
+        <v>1.003209658914051</v>
       </c>
       <c r="E23">
-        <v>1.040992840577033</v>
+        <v>1.003464954555607</v>
       </c>
       <c r="F23">
-        <v>1.05015977492228</v>
+        <v>1.008233271332008</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033778515240172</v>
+        <v>1.044913208689787</v>
       </c>
       <c r="J23">
-        <v>1.038873471226911</v>
+        <v>1.016833352397978</v>
       </c>
       <c r="K23">
-        <v>1.044172435232021</v>
+        <v>1.018406454755935</v>
       </c>
       <c r="L23">
-        <v>1.044614854558651</v>
+        <v>1.018656853133098</v>
       </c>
       <c r="M23">
-        <v>1.053747756065572</v>
+        <v>1.02333429638448</v>
       </c>
       <c r="N23">
-        <v>1.01692566488</v>
+        <v>1.009583360150236</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033455106913425</v>
+        <v>0.9930957749315132</v>
       </c>
       <c r="D24">
-        <v>1.041715243565188</v>
+        <v>1.008946089461203</v>
       </c>
       <c r="E24">
-        <v>1.042159573386296</v>
+        <v>1.009170961023171</v>
       </c>
       <c r="F24">
-        <v>1.051464928402489</v>
+        <v>1.014551300486358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033959270900448</v>
+        <v>1.046730438517519</v>
       </c>
       <c r="J24">
-        <v>1.039661823145183</v>
+        <v>1.020862212364156</v>
       </c>
       <c r="K24">
-        <v>1.045065481144521</v>
+        <v>1.022817902253297</v>
       </c>
       <c r="L24">
-        <v>1.045508279789991</v>
+        <v>1.023038915927193</v>
       </c>
       <c r="M24">
-        <v>1.054781895031974</v>
+        <v>1.028327608560539</v>
       </c>
       <c r="N24">
-        <v>1.017186380337046</v>
+        <v>1.010916938697027</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034976640775201</v>
+        <v>1.000843128042918</v>
       </c>
       <c r="D25">
-        <v>1.04307124633241</v>
+        <v>1.015372749855527</v>
       </c>
       <c r="E25">
-        <v>1.043516231874161</v>
+        <v>1.015566896594108</v>
       </c>
       <c r="F25">
-        <v>1.052983072877695</v>
+        <v>1.021634441851214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034159132662095</v>
+        <v>1.048683399750235</v>
       </c>
       <c r="J25">
-        <v>1.040574407567709</v>
+        <v>1.025342150843754</v>
       </c>
       <c r="K25">
-        <v>1.046101098135735</v>
+        <v>1.027737020384939</v>
       </c>
       <c r="L25">
-        <v>1.046544707067572</v>
+        <v>1.027928268933052</v>
       </c>
       <c r="M25">
-        <v>1.055982562081919</v>
+        <v>1.033905943821948</v>
       </c>
       <c r="N25">
-        <v>1.017488126020598</v>
+        <v>1.01239998690913</v>
       </c>
     </row>
   </sheetData>
